--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1,138 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT SUBMISSION\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="JSS 1A" sheetId="1" r:id="rId1"/>
-    <sheet name="JSS 1B" sheetId="2" r:id="rId2"/>
-    <sheet name="JSS 1C" sheetId="3" r:id="rId3"/>
-    <sheet name="JSS 1D" sheetId="4" r:id="rId4"/>
-    <sheet name="JSS 1E" sheetId="5" r:id="rId5"/>
-    <sheet name="JSS 1F" sheetId="6" r:id="rId6"/>
-    <sheet name="JSS 1G" sheetId="7" r:id="rId7"/>
-    <sheet name="JSS 2A" sheetId="8" r:id="rId8"/>
-    <sheet name="JSS 2B" sheetId="9" r:id="rId9"/>
-    <sheet name="JSS 2C" sheetId="10" r:id="rId10"/>
-    <sheet name="JSS 2D" sheetId="11" r:id="rId11"/>
-    <sheet name="JSS 2E" sheetId="12" r:id="rId12"/>
-    <sheet name="JSS 2F" sheetId="13" r:id="rId13"/>
-    <sheet name="JSS 3A" sheetId="14" r:id="rId14"/>
-    <sheet name="JSS 3B" sheetId="15" r:id="rId15"/>
-    <sheet name="JSS 3C" sheetId="16" r:id="rId16"/>
-    <sheet name="JSS 3D" sheetId="17" r:id="rId17"/>
-    <sheet name="JSS 3E" sheetId="18" r:id="rId18"/>
-    <sheet name="JSS 3F" sheetId="19" r:id="rId19"/>
-    <sheet name="SS 1A" sheetId="20" r:id="rId20"/>
-    <sheet name="SS 1B" sheetId="21" r:id="rId21"/>
-    <sheet name="SS 1C" sheetId="22" r:id="rId22"/>
-    <sheet name="SS 1D" sheetId="23" r:id="rId23"/>
-    <sheet name="SS 1E" sheetId="24" r:id="rId24"/>
-    <sheet name="SS 1F" sheetId="25" r:id="rId25"/>
-    <sheet name="SS 2A" sheetId="26" r:id="rId26"/>
-    <sheet name="SS 2B" sheetId="27" r:id="rId27"/>
-    <sheet name="SS 2C" sheetId="28" r:id="rId28"/>
-    <sheet name="SS 2D" sheetId="29" r:id="rId29"/>
-    <sheet name="SS 2E" sheetId="30" r:id="rId30"/>
-    <sheet name="SS 2F" sheetId="31" r:id="rId31"/>
-    <sheet name="SS 3A" sheetId="32" r:id="rId32"/>
-    <sheet name="SS 3B" sheetId="33" r:id="rId33"/>
-    <sheet name="SS 3C" sheetId="34" r:id="rId34"/>
+    <sheet name="JSS 1A" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="JSS 1B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="JSS 1C" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="JSS 1D" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="JSS 1E" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="JSS 1F" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="JSS 1G" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="JSS 2A" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="JSS 2B" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="JSS 2C" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="JSS 2D" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="JSS 2E" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="JSS 2F" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="JSS 3A" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="JSS 3B" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="JSS 3C" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="JSS 3D" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="JSS 3E" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="JSS 3F" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SS 1A" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SS 1B" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="SS 1C" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="SS 1D" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="SS 1E" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="SS 1F" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="SS 2A" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="SS 2B" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="SS 2C" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="SS 2D" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="SS 2E" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="SS 2F" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="SS 3A" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="SS 3B" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="SS 3C" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Full Name</t>
-  </si>
-  <si>
-    <t>Admission No</t>
-  </si>
-  <si>
-    <t>AI Score</t>
-  </si>
-  <si>
-    <t>YUSUF DAWUD</t>
-  </si>
-  <si>
-    <t>2026-01-26 13:18:32</t>
-  </si>
-  <si>
-    <t>adam usman</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2026-01-26 12:03:28</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>2026-01-26 11:31:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAITH JOSEPH </t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,22 +135,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -222,16 +183,16 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
       </font>
       <alignment horizontal="center" vertical="top"/>
       <border outline="0">
@@ -247,19 +208,79 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Timestamp"/>
@@ -533,20 +554,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+    <row r="1">
+      <c r="A1" s="4" t="n"/>
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="4" t="n"/>
+      <c r="D1" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -554,183 +579,302 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col width="31.7109375" customWidth="1" min="1" max="1"/>
+    <col width="12.140625" customWidth="1" min="2" max="2"/>
+    <col width="15.42578125" customWidth="1" min="3" max="3"/>
+    <col width="10.28515625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Admission No</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>AI Score</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Admission No</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>AI Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-04 17:46:57</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zara Muhammad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="12.140625" customWidth="1" min="2" max="2"/>
+    <col width="15.42578125" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,50 +882,76 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Admission No</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>AI Score</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-26 12:03:28</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YUSUF DAWUD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -791,76 +961,112 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Admission No</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-26 11:31:15</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAITH JOSEPH </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -870,194 +1076,292 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Admission No</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>AI Score</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-26 13:18:32</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adam usman</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1067,12 +1371,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -692,7 +692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -707,25 +707,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Full Name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Admission No</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>AI Score</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-04 18:51:28</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YAYEEM IBRAHIM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -692,7 +692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -739,13 +739,31 @@
           <t>YAYEEM IBRAHIM</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C2" t="n">
+        <v>42</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-04 18:56:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NAMBA MARCUS PULKA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -816,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,13 +857,31 @@
           <t>Zara Muhammad</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C2" t="n">
+        <v>38</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-04 19:19:08</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANNABEL JOEL </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -780,14 +780,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Admission No</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>AI Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-07 12:24:25</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahmed said Yusuf </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Number 14</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -656,14 +656,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Admission No</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>AI Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-07 17:58:31</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Name : Wabulari Zachariah </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -884,14 +884,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Admission No</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>AI Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-07 17:59:12</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aisha modu sheriff </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -717,14 +717,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Admission No</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>AI Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-07 19:22:36</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SANI IBRAHIM SANI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -717,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,13 +758,31 @@
           <t>SANI IBRAHIM SANI</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="C2" t="n">
+        <v>19</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-07 19:35:18</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Arhyel Jacob wakawa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -656,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,13 +697,31 @@
           <t xml:space="preserve">Name : Wabulari Zachariah </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="C2" t="n">
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-07 19:37:39</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muhammad dahiru idrisa </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -963,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,12 +1004,30 @@
           <t xml:space="preserve">Aisha modu sheriff </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="C2" t="n">
+        <v>15</v>
       </c>
       <c r="D2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-07 19:50:53</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moduye Khadija </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -814,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -879,13 +879,31 @@
           <t>NAMBA MARCUS PULKA</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C3" t="n">
+        <v>39</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-07 20:00:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Muhammad Ali zarami</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -656,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,12 +715,30 @@
           <t xml:space="preserve">Muhammad dahiru idrisa </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="C3" t="n">
+        <v>14</v>
       </c>
       <c r="D3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-08 03:56:36</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SARAH MUSA BALAMI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,13 +1058,31 @@
           <t xml:space="preserve">Moduye Khadija </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="C3" t="n">
+        <v>45</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-08 16:47:09</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ELISHA BITRUS DAUDA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -753,7 +753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,13 +812,31 @@
           <t>Arhyel Jacob wakawa</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="C3" t="n">
+        <v>22</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:19:49</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ummu Kalthum Muhammad Yahaya</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1017,7 +1017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,13 +1094,31 @@
           <t>ELISHA BITRUS DAUDA</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="C4" t="n">
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:46:17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ESTHER YAGA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -656,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,13 +733,31 @@
           <t>SARAH MUSA BALAMI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C4" t="n">
+        <v>38</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:57:43</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Halima Sadiya Abubakar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -974,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,6 +1022,26 @@
       </c>
       <c r="D2" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-08 19:00:43</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fatima Muhammed Gadaka</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -656,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,13 +751,31 @@
           <t>Halima Sadiya Abubakar</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C5" t="n">
+        <v>25</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-08 19:07:39</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amina Abubakar Adam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1073,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1168,13 +1168,31 @@
           <t>ESTHER YAGA</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C5" t="n">
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-08 19:09:47</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Iyudigal Fali</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -656,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,13 +769,31 @@
           <t>Amina Abubakar Adam</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+      <c r="C6" t="n">
+        <v>47</v>
       </c>
       <c r="D6" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-08 19:21:37</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUHAMMAD ABUBAKAR </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1091,7 +1091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,13 +1204,31 @@
           <t>Iyudigal Fali</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-08 19:27:04</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FATIMA BUKAR WAZIRI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1091,7 +1091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1222,12 +1222,30 @@
           <t>FATIMA BUKAR WAZIRI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C7" t="n">
+        <v>33</v>
       </c>
       <c r="D7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-08 19:38:02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RAHAMA MOHAMMED YUSUF</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1091,7 +1091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,13 +1240,31 @@
           <t>RAHAMA MOHAMMED YUSUF</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C8" t="n">
+        <v>42</v>
       </c>
       <c r="D8" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-08 19:38:53</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GLORIA JOHN GADZAMA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -807,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,13 +884,31 @@
           <t>Ummu Kalthum Muhammad Yahaya</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="C4" t="n">
+        <v>43</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-08 19:48:45</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ibrahim Abubakar Shettima </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Number 3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -807,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,6 +909,26 @@
       </c>
       <c r="D5" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-08 19:58:11</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abdullahi Sugun Mai mele</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Number 35</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -656,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,13 +787,31 @@
           <t xml:space="preserve">MUHAMMAD ABUBAKAR </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-08 20:20:44</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rachel Michael</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1147,7 +1147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,13 +1314,31 @@
           <t>GLORIA JOHN GADZAMA</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C9" t="n">
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-02-08 20:21:25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shatu Musa Hassan </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1066,7 +1066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,6 +1134,26 @@
       </c>
       <c r="D3" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-08 20:32:13</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yahya A Yahya</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1372,7 +1372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,13 +1431,31 @@
           <t xml:space="preserve">ANNABEL JOEL </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C3" t="n">
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-08 22:15:10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Usman Muhammad Gubio</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1372,7 +1372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,13 +1449,31 @@
           <t>Usman Muhammad Gubio</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="C4" t="n">
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-08 22:15:27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Usman Muhammad Gubio</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1372,7 +1372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,13 +1467,31 @@
           <t>Usman Muhammad Gubio</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="C5" t="n">
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-08 22:15:44</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Usman Muhammad Gubio</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1372,7 +1372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,13 +1485,31 @@
           <t>Usman Muhammad Gubio</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="C6" t="n">
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-08 22:15:58</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Usman Muhammad Gubio</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1372,7 +1372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,12 +1503,30 @@
           <t>Usman Muhammad Gubio</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-08 22:16:43</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Usman Muhammad Gubio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -960,7 +960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1043,12 +1043,30 @@
           <t>Muhammad Ali zarami</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="C4" t="n">
+        <v>23</v>
       </c>
       <c r="D4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-09 05:29:14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abubakar shettima mutawalli  </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1084,7 +1084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,6 +1172,26 @@
       </c>
       <c r="D4" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-09 05:33:41</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ibrahim Usman Umar </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1205,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,13 +1390,31 @@
           <t xml:space="preserve">Shatu Musa Hassan </t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C10" t="n">
+        <v>39</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-02-09 13:02:40</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Zainab Tijjani</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -825,7 +825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +947,26 @@
       </c>
       <c r="D6" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-09 13:31:48</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>USMAN BABA SHEHU</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -980,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1081,13 +1081,31 @@
           <t xml:space="preserve">Abubakar shettima mutawalli  </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-09 17:14:02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LAWAN SANI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -656,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,13 +805,31 @@
           <t>Rachel Michael</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C8" t="n">
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-09 17:33:58</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>JOHANNAH SALEM BOURMANDA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -843,7 +843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,6 +984,26 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-09 17:43:43</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ishaku Yusuf Dawha </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1281,7 +1281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1484,13 +1484,31 @@
           <t>Zainab Tijjani</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C11" t="n">
+        <v>38</v>
       </c>
       <c r="D11" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-02-09 17:45:32</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Umar Fatima Ali</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1160,7 +1160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1267,6 +1267,26 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-09 18:26:25</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alamin hamza</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Number 8</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1160,7 +1160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,6 +1288,26 @@
       </c>
       <c r="D6" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-09 19:24:17</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mustapha Ali abbatar </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -843,7 +843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,6 +1005,26 @@
       </c>
       <c r="D8" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-09 20:40:31</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>musa peter</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1038,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1157,13 +1157,31 @@
           <t>LAWAN SANI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="C6" t="n">
+        <v>18</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-09 20:56:20</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hadiza Danjuma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1038,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1175,13 +1175,31 @@
           <t>Hadiza Danjuma</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C7" t="n">
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:21:14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FATIMA ALHAJI GANA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -843,7 +843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,6 +1025,26 @@
       </c>
       <c r="D9" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:50:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adam Muhammad Gudusu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1384,6 +1384,26 @@
       </c>
       <c r="D7" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:06:54</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mahmud Alhaji Hassan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Number 5</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1404,6 +1404,26 @@
       </c>
       <c r="D8" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:13:10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aisha ahmed Talib </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Number 33</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1058,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1213,13 +1213,31 @@
           <t>FATIMA ALHAJI GANA</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="C8" t="n">
+        <v>45</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-10 20:13:10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abatcha M Abatcha </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1254,7 +1254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,6 +1442,26 @@
       </c>
       <c r="D9" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-02-10 20:15:44</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abubakar audu ali </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number 7 </t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1254,7 +1254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,6 +1462,26 @@
       </c>
       <c r="D10" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-02-10 22:35:31</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Audu Ali Abubakar </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1495,7 +1495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1716,12 +1716,30 @@
           <t>Umar Fatima Ali</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="C12" t="n">
+        <v>44</v>
       </c>
       <c r="D12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-02-11 06:28:42</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HAUWA ALIYU MADUGU</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1254,7 +1254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1482,6 +1482,26 @@
       </c>
       <c r="D11" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-02-12 07:39:40</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Abdullahi Tijjani Buji</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1254,7 +1254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,6 +1502,26 @@
       </c>
       <c r="D12" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-02-12 19:51:17</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hauwa Hussaini maina</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -843,7 +843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,6 +1045,26 @@
       </c>
       <c r="D10" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-02-12 21:24:31</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nguru Ali </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Serial number 31</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Results.xlsx
+++ b/Project_Results.xlsx
@@ -1274,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1542,6 +1542,26 @@
       </c>
       <c r="D13" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:38:25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>muhammad musa usman</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
